--- a/prop/transmission_calc.xlsx
+++ b/prop/transmission_calc.xlsx
@@ -1150,11 +1150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423552752"/>
-        <c:axId val="423553840"/>
+        <c:axId val="-1066334880"/>
+        <c:axId val="-1066332704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423552752"/>
+        <c:axId val="-1066334880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000004E-2"/>
@@ -1212,12 +1212,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423553840"/>
+        <c:crossAx val="-1066332704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423553840"/>
+        <c:axId val="-1066332704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1276,7 +1276,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423552752"/>
+        <c:crossAx val="-1066334880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2341,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2794,7 +2794,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C40" s="10"/>
     </row>
@@ -2803,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>68</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="B43">
         <f>IF(B40=25,D68,IF(B40=35,C68,"ERROR! Chain not available"))</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="B44">
         <f>IF(B40=25,D67,IF(B40=35,C67,"ERROR"))</f>
-        <v>27.85</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>36</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B46" s="4">
         <f>B61/(B44/1000/2)</f>
-        <v>1076.5632784932175</v>
+        <v>921.11481738974226</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B48" s="2">
         <f>1/B46</f>
-        <v>9.2888176661535659E-4</v>
+        <v>1.0856409875522389E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B52" s="3">
         <f>PI()/30*B59*(B44/1000/2)</f>
-        <v>0.64995064013267689</v>
+        <v>0.75963710363801185</v>
       </c>
       <c r="C52" t="s">
         <v>45</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B53" s="3">
         <f>IF(B43&lt;10,Plan2!B4,IF(B43&lt;12,Plan2!B5,IF(B43&lt;14,Plan2!B6,IF(B43&lt;17,Plan2!B7,IF(B43&lt;21,Plan2!B8,IF(B43&lt;25,Plan2!B9,Plan2!B10))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B80" s="3">
         <f>IF(B79=D65,D66/B46,IF(B79=C65,C66/B46,"ERROR! Need to reevaluate design"))</f>
-        <v>2.0063846158891705</v>
+        <v>2.3449845331128363</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
